--- a/Sprint Task Sheet & Burn Down/CMPE 202 - Sprint Task Sheet.xlsx
+++ b/Sprint Task Sheet & Burn Down/CMPE 202 - Sprint Task Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1620" windowWidth="44160" windowHeight="25780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burndown (Team The Ninjas)</a:t>
+              <a:t>Burndown (The Ninjas)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -627,46 +627,46 @@
                 <c:formatCode>m"/"d</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>43576.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43577.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43578.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43579.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43580.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43581.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>43582.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>43583.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>43584.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>43585.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>43586.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>43587.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>43588.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>43589.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43590.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43591.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43592.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43593.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43594.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43595.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,46 +748,46 @@
                 <c:formatCode>m"/"d</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>43576.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43577.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43578.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43579.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43580.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43581.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>43582.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>43583.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>43584.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>43585.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>43586.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>43587.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>43588.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>43589.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43590.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43591.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43592.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43593.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43594.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43595.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:S1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1376,46 +1376,46 @@
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
       <c r="E3" s="7">
+        <v>43576</v>
+      </c>
+      <c r="F3" s="8">
+        <v>43577</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43578</v>
+      </c>
+      <c r="H3" s="8">
+        <v>43579</v>
+      </c>
+      <c r="I3" s="8">
+        <v>43580</v>
+      </c>
+      <c r="J3" s="8">
+        <v>43581</v>
+      </c>
+      <c r="K3" s="8">
         <v>43582</v>
       </c>
-      <c r="F3" s="8">
+      <c r="L3" s="8">
         <v>43583</v>
       </c>
-      <c r="G3" s="10">
+      <c r="M3" s="9">
         <v>43584</v>
       </c>
-      <c r="H3" s="8">
+      <c r="N3" s="10">
         <v>43585</v>
       </c>
-      <c r="I3" s="8">
+      <c r="O3" s="8">
         <v>43586</v>
       </c>
-      <c r="J3" s="8">
+      <c r="P3" s="8">
         <v>43587</v>
       </c>
-      <c r="K3" s="8">
+      <c r="Q3" s="8">
         <v>43588</v>
       </c>
-      <c r="L3" s="8">
+      <c r="R3" s="8">
         <v>43589</v>
-      </c>
-      <c r="M3" s="9">
-        <v>43590</v>
-      </c>
-      <c r="N3" s="10">
-        <v>43591</v>
-      </c>
-      <c r="O3" s="8">
-        <v>43592</v>
-      </c>
-      <c r="P3" s="8">
-        <v>43593</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>43594</v>
-      </c>
-      <c r="R3" s="8">
-        <v>43595</v>
       </c>
       <c r="S3" s="11"/>
     </row>
@@ -19918,7 +19918,9 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
